--- a/InputData/endo-learn/GBEtPR/Grid Battery Energy to Power Ratio.xlsx
+++ b/InputData/endo-learn/GBEtPR/Grid Battery Energy to Power Ratio.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.3.3-us-wipB\InputData\endo-learn\HpDoGBU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\endo-learn\GBEtPR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
   <si>
     <t>Source:</t>
   </si>
@@ -122,9 +122,6 @@
     <t>About</t>
   </si>
   <si>
-    <t>(in MW or GW) to the energy they store (in MWh or GWh).</t>
-  </si>
-  <si>
     <t>GBEtPR Grid Battery Energy to Power Ratio</t>
   </si>
   <si>
@@ -134,7 +131,13 @@
     <t>Energy to Power Ratio</t>
   </si>
   <si>
-    <t>Grid Batteries</t>
+    <t>Grid Batteries (hours)</t>
+  </si>
+  <si>
+    <t>(in MW or GW) to the energy they store (in MWh or GWh), where the</t>
+  </si>
+  <si>
+    <t>units are in hours.</t>
   </si>
 </sst>
 </file>
@@ -462,12 +465,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -494,6 +491,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -941,22 +944,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" customWidth="1"/>
-    <col min="2" max="2" width="46.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.3984375" customWidth="1"/>
+    <col min="2" max="2" width="46.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -964,34 +969,39 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="40">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B4" s="38">
         <v>2017</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="41" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B6" s="39" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1008,28 +1018,28 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="40.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="16" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="27" width="12.7109375" customWidth="1"/>
-    <col min="28" max="30" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.265625" customWidth="1"/>
+    <col min="2" max="2" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="16" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="27" width="12.73046875" customWidth="1"/>
+    <col min="28" max="30" width="11.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="1:30" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" ht="23.25" x14ac:dyDescent="0.7">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
@@ -1121,7 +1131,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
         <v>3</v>
       </c>
@@ -1213,7 +1223,7 @@
         <v>223.71053661763759</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
@@ -1305,7 +1315,7 @@
         <v>180.40979354233912</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
         <v>5</v>
       </c>
@@ -1426,7 +1436,7 @@
         <v>404.12033015997667</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A15" s="9" t="s">
         <v>6</v>
       </c>
@@ -1518,7 +1528,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
         <v>3</v>
       </c>
@@ -1610,7 +1620,7 @@
         <v>559.27634154409395</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A17" s="12" t="s">
         <v>4</v>
       </c>
@@ -1702,7 +1712,7 @@
         <v>414.94252514737997</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1823,7 +1833,7 @@
         <v>974.21886669147398</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.45">
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
@@ -1854,7 +1864,7 @@
       <c r="AC19" s="15"/>
       <c r="AD19" s="15"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.45">
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -1885,17 +1895,17 @@
       <c r="AC20" s="15"/>
       <c r="AD20" s="15"/>
     </row>
-    <row r="21" spans="1:30" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:30" ht="23.25" x14ac:dyDescent="0.7">
       <c r="A21" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A22" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
         <v>2</v>
       </c>
@@ -1967,7 +1977,7 @@
       <c r="AC23" s="17"/>
       <c r="AD23" s="17"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -2039,7 +2049,7 @@
       <c r="AC24" s="19"/>
       <c r="AD24" s="19"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -2111,7 +2121,7 @@
       <c r="AC25" s="19"/>
       <c r="AD25" s="19"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -2190,7 +2200,7 @@
       <c r="AC26" s="19"/>
       <c r="AD26" s="19"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.45">
       <c r="U27" s="19"/>
       <c r="V27" s="19"/>
       <c r="W27" s="19"/>
@@ -2202,7 +2212,7 @@
       <c r="AC27" s="19"/>
       <c r="AD27" s="19"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A28" s="16" t="s">
         <v>12</v>
       </c>
@@ -2217,7 +2227,7 @@
       <c r="AC28" s="19"/>
       <c r="AD28" s="19"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="s">
         <v>6</v>
       </c>
@@ -2289,7 +2299,7 @@
       <c r="AC29" s="17"/>
       <c r="AD29" s="17"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A30" s="21" t="s">
         <v>5</v>
       </c>
@@ -2375,118 +2385,118 @@
       <c r="AC30" s="19"/>
       <c r="AD30" s="19"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.45">
       <c r="B31" s="20"/>
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
     </row>
-    <row r="34" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="23.25" x14ac:dyDescent="0.7">
       <c r="A34" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="22" t="s">
+    <row r="37" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C37" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="23"/>
-      <c r="E37" s="22" t="s">
+      <c r="D37" s="42"/>
+      <c r="E37" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="F37" s="23"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="24" t="s">
+      <c r="F37" s="42"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A38" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="25">
+      <c r="B38" s="23">
         <v>2017</v>
       </c>
-      <c r="C38" s="24" t="s">
+      <c r="C38" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="26" t="s">
+      <c r="D38" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="24" t="s">
+      <c r="E38" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F38" s="26" t="s">
+      <c r="F38" s="24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="27"/>
-      <c r="C39" s="28">
+      <c r="B39" s="25"/>
+      <c r="C39" s="26">
         <f>0.44*C41</f>
         <v>44</v>
       </c>
-      <c r="D39" s="29">
+      <c r="D39" s="27">
         <f>0.44*D41</f>
         <v>79.64</v>
       </c>
-      <c r="E39" s="28">
+      <c r="E39" s="26">
         <f>0.44*E41</f>
         <v>73.48</v>
       </c>
-      <c r="F39" s="29">
+      <c r="F39" s="27">
         <f>0.44*F41</f>
         <v>185.24</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="30" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A40" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="31"/>
-      <c r="C40" s="32">
+      <c r="B40" s="29"/>
+      <c r="C40" s="30">
         <f>C41-C39</f>
         <v>56</v>
       </c>
-      <c r="D40" s="33">
+      <c r="D40" s="31">
         <f t="shared" ref="D40:F40" si="4">D41-D39</f>
         <v>101.36</v>
       </c>
-      <c r="E40" s="32">
+      <c r="E40" s="30">
         <f t="shared" si="4"/>
         <v>93.52</v>
       </c>
-      <c r="F40" s="33">
+      <c r="F40" s="31">
         <f t="shared" si="4"/>
         <v>235.76</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="34" t="s">
+    <row r="41" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A41" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="35">
+      <c r="B41" s="33">
         <v>11</v>
       </c>
-      <c r="C41" s="34">
+      <c r="C41" s="32">
         <v>100</v>
       </c>
-      <c r="D41" s="36">
+      <c r="D41" s="34">
         <v>181</v>
       </c>
-      <c r="E41" s="34">
+      <c r="E41" s="32">
         <v>167</v>
       </c>
-      <c r="F41" s="36">
+      <c r="F41" s="34">
         <v>421</v>
       </c>
     </row>
@@ -2561,12 +2571,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="1" max="1" width="37.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B1" s="1">
         <v>2016</v>
       </c>
@@ -2613,7 +2623,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -2678,7 +2688,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -2743,28 +2753,28 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A6" s="36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A7" s="36" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A8" s="36" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A10" s="40" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="39">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A11" s="37">
         <f>AVERAGE(B2:P3)</f>
         <v>2.3999999999999986</v>
       </c>
@@ -2781,24 +2791,26 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="42" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B1" s="40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="37">
+        <v>33</v>
+      </c>
+      <c r="B2" s="35">
         <f>Calculations!A11</f>
         <v>2.3999999999999986</v>
       </c>
@@ -3061,13 +3073,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D32B000-3262-44FB-9219-AC1965F44142}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CCE18D2-86A6-4337-BB85-4EA5C4459B76}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCDD6E36-F0A0-4E20-9B1A-D184D80E06F3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5BCAAE9-7310-4E52-995D-B6C71623AFBE}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0895C9AF-A6D4-493E-A4D4-C9E57B018056}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0925AC6-D67B-4542-A849-3C32BAEF6ED2}"/>
 </file>